--- a/Data/Exercises Features.xlsx
+++ b/Data/Exercises Features.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20109\Documents\m.v.b\Phlex\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25EA736-EDCB-4821-BEC6-343596077D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Exercise Name</t>
-  </si>
-  <si>
-    <t>Pose Angles</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>[[37, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143], [34, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138], [34, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]</t>
-  </si>
-  <si>
-    <t>Prone Hamstring Curls</t>
-  </si>
-  <si>
-    <t>[[43, 21, 46, 99, 97, 167, 122, 175, 155, 170, 166, 128, 130], [67, 30, 12, 109, 115, 29, 168, 147, 158, 159, 56, 122, 163], [18, 0, 48, 81, 32, 148, 31, 169, 139, 173, 168, 141, 150]]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,41 +420,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="151.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Exercise Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pose Angles</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bridge</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[[[37, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143]], [[34, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138]], [[34, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]]</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hamstring Curls</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[[[42, 123, 121, 116, 61, 120, 149, 158, 161, 158, 156, 123, 107]], [[46, 113, 120, 116, 68, 118, 133, 164, 158, 154, 60, 115, 162]], [[45, 111, 116, 85, 57, 139, 138, 164, 167, 150, 138, 115, 108]]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Side-Lying Leg Lifts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[[[38, 178, 28, 179, 17, 168, 169, 156, 100, 158, 55, 127, 178]], [[7, 162, 37, 166, 67, 177, 145, 117, 109, 58, 56, 107, 176]], [[2, 154, 23, 156, 102, 159, 146, 146, 143, 109, 115, 93, 151]]]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data/Exercises Features.xlsx
+++ b/Data/Exercises Features.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[[37, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143]], [[34, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138]], [[34, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]]</t>
+          <t>[[31, 34, 8, 158, 175, 159, 129, 97, 113, 15, 27, 95, 153], [34, 47, 29, 167, 179, 178, 162, 142, 148, 23, 35, 114, 133], [33, 32, 24, 163, 162, 179, 178, 122, 121, 20, 26, 122, 137]]</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[[42, 123, 121, 116, 61, 120, 149, 158, 161, 158, 156, 123, 107]], [[46, 113, 120, 116, 68, 118, 133, 164, 158, 154, 60, 115, 162]], [[45, 111, 116, 85, 57, 139, 138, 164, 167, 150, 138, 115, 108]]]</t>
+          <t>[[45, 110, 120, 68, 48, 28, 148, 171, 174, 171, 169, 123, 119], [42, 107, 116, 76, 53, 61, 141, 174, 163, 167, 61, 124, 140], [45, 109, 115, 84, 62, 145, 133, 174, 172, 158, 145, 117, 100]]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[[38, 178, 28, 179, 17, 168, 169, 156, 100, 158, 55, 127, 178]], [[7, 162, 37, 166, 67, 177, 145, 117, 109, 58, 56, 107, 176]], [[2, 154, 23, 156, 102, 159, 146, 146, 143, 109, 115, 93, 151]]]</t>
+          <t>[[25, 176, 37, 165, 58, 165, 113, 155, 127, 125, 110, 82, 92], [21, 172, 48, 137, 102, 68, 140, 133, 92, 98, 46, 164, 130], [12, 158, 63, 170, 30, 134, 168, 127, 94, 98, 43, 79, 138]]</t>
         </is>
       </c>
     </row>

--- a/Data/Exercises Features.xlsx
+++ b/Data/Exercises Features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[31, 34, 8, 158, 175, 159, 129, 97, 113, 15, 27, 95, 153], [34, 47, 29, 167, 179, 178, 162, 142, 148, 23, 35, 114, 133], [33, 32, 24, 163, 162, 179, 178, 122, 121, 20, 26, 122, 137]]</t>
+          <t>[[37, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143], [34, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138], [34, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hamstring Curls</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[45, 110, 120, 68, 48, 28, 148, 171, 174, 171, 169, 123, 119], [42, 107, 116, 76, 53, 61, 141, 174, 163, 167, 61, 124, 140], [45, 109, 115, 84, 62, 145, 133, 174, 172, 158, 145, 117, 100]]</t>
+          <t>[[1, 58, 152, 51, 111, 174, 117, 179, 177, 162, 165, 127, 137], [14, 96, 139, 17, 112, 73, 164, 97, 91, 82, 44, 153, 104], [129, 122, 101, 174, 17, 150, 174, 151, 133, 116, 134, 173, 173]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Hamstring Curls</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[[61, 101, 129, 95, 58, 173, 150, 179, 179, 125, 123, 170, 96], [63, 109, 120, 129, 70, 92, 130, 176, 174, 127, 63, 114, 154], [46, 112, 117, 110, 59, 116, 142, 174, 172, 133, 143, 121, 97]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Side-Lying Leg Lifts</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[[25, 176, 37, 165, 58, 165, 113, 155, 127, 125, 110, 82, 92], [21, 172, 48, 137, 102, 68, 140, 133, 92, 98, 46, 164, 130], [12, 158, 63, 170, 30, 134, 168, 127, 94, 98, 43, 79, 138]]</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[[68, 175, 164, 150, 171, 164, 157, 145, 113, 68, 33, 123, 158], [24, 165, 67, 149, 67, 86, 163, 55, 109, 6, 41, 154, 178], [13, 173, 49, 172, 103, 119, 157, 127, 105, 62, 76, 112, 162]]</t>
         </is>
       </c>
     </row>

--- a/Data/Exercises Features.xlsx
+++ b/Data/Exercises Features.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20109\Documents\m.v.b\Phlex\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739F934-AB11-4A01-B384-509F01AAD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Exercise Name</t>
+  </si>
+  <si>
+    <t>Pose Angles</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>[[37, 122, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143], [34, 127, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138], [34, 127, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]</t>
+  </si>
+  <si>
+    <t>Hamstring Curls</t>
+  </si>
+  <si>
+    <t>[[42, 109, 123, 121, 116, 61, 120, 149, 158, 161, 158, 156, 123, 107], [46, 87, 113, 120, 116, 68, 118, 133, 164, 158, 154, 60, 115, 162], [45, 84, 111, 116, 85, 57, 139, 138, 164, 167, 150, 138, 115, 108]]</t>
+  </si>
+  <si>
+    <t>Side-Lying Leg Lifts</t>
+  </si>
+  <si>
+    <t>[[38, 26, 178, 28, 179, 17, 168, 169, 156, 100, 158, 55, 127, 178], [7, 7, 162, 37, 166, 67, 177, 145, 117, 109, 58, 56, 107, 176], [2, 1, 154, 23, 156, 102, 159, 146, 146, 143, 109, 115, 93, 151]]</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Target Angles</t>
+  </si>
+  <si>
+    <t>[[56,53,170,20,170,170,170,170,180,180,170,170,90,90],[56,53,90,20,170,170,170,170,180,180,170,170,90,90]]</t>
+  </si>
+  <si>
+    <t>['L_Neck','R_Neck','L_Shoulder','L_Elbow','L_Wrist']</t>
+  </si>
+  <si>
+    <t>['L_Neck']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,80 +430,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="177.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Exercise Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pose Angles</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[[37, 27, 18, 162, 171, 174, 156, 118, 114, 24, 26, 127, 143], [34, 54, 45, 160, 166, 175, 162, 157, 157, 36, 40, 126, 138], [34, 40, 31, 160, 166, 179, 167, 132, 131, 30, 33, 137, 148]]</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[[1, 58, 152, 51, 111, 174, 117, 179, 177, 162, 165, 127, 137], [14, 96, 139, 17, 112, 73, 164, 97, 91, 82, 44, 153, 104], [129, 122, 101, 174, 17, 150, 174, 151, 133, 116, 134, 173, 173]]</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hamstring Curls</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[[61, 101, 129, 95, 58, 173, 150, 179, 179, 125, 123, 170, 96], [63, 109, 120, 129, 70, 92, 130, 176, 174, 127, 63, 114, 154], [46, 112, 117, 110, 59, 116, 142, 174, 172, 133, 143, 121, 97]]</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Side-Lying Leg Lifts</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[[68, 175, 164, 150, 171, 164, 157, 145, 113, 68, 33, 123, 158], [24, 165, 67, 149, 67, 86, 163, 55, 109, 6, 41, 154, 178], [13, 173, 49, 172, 103, 119, 157, 127, 105, 62, 76, 112, 162]]</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Exercises Features.xlsx
+++ b/Data/Exercises Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20109\Documents\m.v.b\Phlex\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739F934-AB11-4A01-B384-509F01AAD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B7E0F-7736-4A06-8506-FC14A835CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,12 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -433,15 +432,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
     <col min="2" max="2" width="177.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,7 +450,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -462,7 +461,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -473,7 +472,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -484,7 +483,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -495,7 +494,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
